--- a/ApolloQA/Data/RatingManual/GA/OR00020.BaseRateFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00020.BaseRateFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00020.BaseRateFactors" sheetId="1" r:id="Re737bded6d80462d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00020.BaseRateFactors" sheetId="1" r:id="R25a75bf18e604db2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,12 +12,128 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Base Rate Factor</x:v>
+        <x:v>Bodily Injury Limit Per Person</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Bodily Injury Limit Per Occurrence</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Property Damage Limit Per Occurrence</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Increased Limit Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>0.0598</x:v>
+        <x:v>$30,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$60,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.1049</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$50,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.2051</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$300,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.5518</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.7750</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.8891</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.0089</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.2561</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.6594</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
